--- a/doc/演習プログラム仕様概要.xlsx
+++ b/doc/演習プログラム仕様概要.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\i1968\work\uccScrumTraining\ApFsn_SWC_Rep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\i1968\work\uccScrumTraining\ApFsn_SWC_Rep\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17590240-96E4-42A4-BF95-067DD1564908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762C65B9-6835-4469-85BD-E724B3B50CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_全体" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="170">
   <si>
     <t>コンポーネントのアーキテクチャ理解　　プログラミング演習</t>
     <rPh sb="15" eb="17">
@@ -1422,6 +1422,10 @@
   </si>
   <si>
     <t>main_schedule()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>st_crd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1429,7 +1433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,6 +1493,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1941,7 +1953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2002,10 +2014,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6918,7 +6933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CB741E-A341-4D7B-9C27-63384A03763B}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6964,7 +6979,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>168</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -7151,7 +7166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E408766C-1A92-460B-975B-672DB537DD49}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7203,7 +7220,7 @@
       <c r="G3" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="54" t="s">
         <v>126</v>
       </c>
       <c r="I3" s="23" t="s">
@@ -7232,7 +7249,9 @@
       <c r="G4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="55" t="s">
+        <v>169</v>
+      </c>
       <c r="I4" s="14" t="s">
         <v>53</v>
       </c>
@@ -7303,7 +7322,7 @@
       <c r="G7" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="54" t="s">
         <v>131</v>
       </c>
       <c r="I7" s="23" t="s">
@@ -7332,7 +7351,9 @@
       <c r="G8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="56" t="s">
+        <v>169</v>
+      </c>
       <c r="I8" s="37" t="s">
         <v>73</v>
       </c>
@@ -7526,7 +7547,7 @@
       <c r="J3" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="53" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7552,7 +7573,7 @@
       <c r="J4" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D5" s="29"/>
@@ -7890,6 +7911,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008663B2E4F281F14C85355D2F031ED094" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1d8a721b52cc4df8dc3590e994e8838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c77cafcc-91f2-45f1-a041-8245d2593f87" xmlns:ns3="91594274-973f-42d9-9101-2bb8706936f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="695a03f0968d84d1c452d42fe4c897aa" ns2:_="" ns3:_="">
     <xsd:import namespace="c77cafcc-91f2-45f1-a041-8245d2593f87"/>
@@ -8086,22 +8122,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C606CC85-3632-4681-B56D-6BF5ED916082}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="91594274-973f-42d9-9101-2bb8706936f3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c77cafcc-91f2-45f1-a041-8245d2593f87"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB29110B-170E-4C05-BE44-712500CD4B34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC7ABEA5-88D2-413C-80FC-D6D2B01E0911}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8118,29 +8164,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB29110B-170E-4C05-BE44-712500CD4B34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C606CC85-3632-4681-B56D-6BF5ED916082}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="91594274-973f-42d9-9101-2bb8706936f3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c77cafcc-91f2-45f1-a041-8245d2593f87"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>